--- a/output/fit_clients/fit_round_62.xlsx
+++ b/output/fit_clients/fit_round_62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7992356642.431227</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003114145818044624</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.087961337595857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9540903152110114</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.087961337595857</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4544667933.24704</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005246733071228227</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.561392120246717</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9018740204876802</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.561392120246717</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6496122364.903666</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002801201878450773</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.431938899878604</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9742800136065531</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.431938899878604</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4070889023.484901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.00447129741768741</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>16</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.631478918597426</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.833698655977636</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.631478918597426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7986669327.044726</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002181510518847482</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.463213360821719</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8710527309887338</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.463213360821719</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8900667147.792402</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009972409602990681</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.556035451235863</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9087850860448733</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.556035451235863</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5010148232.751966</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002817269302766615</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.383357593056413</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.963517291975029</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.383357593056413</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5235341740.155175</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004219190163879134</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.342816671460614</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.919207093108906</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.342816671460614</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4259357512.791825</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004057790001597776</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>12</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.02633527590426823</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.841678560251685</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.3731133353083589</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.841678560251685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3692096326.890337</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001206475608826222</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6317608703735144</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.455851295389</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.8682288872962051</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.455851295389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7859027474.249505</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001696666861046749</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.794294958113745</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.022058351802264</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.794294958113745</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4514316967.934163</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003729783037483243</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.479077634083548</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02042275573341</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.479077634083548</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7092948938.658746</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002991107925778756</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.981142675823816</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.898322085744683</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.981142675823816</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>7848585090.108809</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003834127362855785</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.38788204771285</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9970609712634114</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.38788204771285</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5132570833.45418</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004177989363415908</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.196283499022706</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.925462672807504</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.196283499022706</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>5835558088.451048</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00228071459026596</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.909505797291577</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9391826619239353</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.909505797291577</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4831046935.106727</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009795301269531827</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.238714252878756</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9441295285597929</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-3.238714252878756</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>2896846392.086007</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002132297915481143</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.771451374416326</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9150368430590239</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.771451374416326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>6129254599.556828</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001296529080983846</v>
       </c>
       <c r="G20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>7</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.639218377327354</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.856650031875449</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.639218377327354</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5643154077.64247</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004216559895187265</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.837248689236521</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8613423794170644</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.837248689236521</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4925182093.638412</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.00555416514577377</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>15</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.690848553843975</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.7975593887072796</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.690848553843975</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>8482890999.281005</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001991365632645906</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>18</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.312918048580596</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8541279166455821</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.312918048580596</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5205562330.681246</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003716261319976597</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>10</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.234241690401746</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.004355396013553</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.234241690401746</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5013837369.401047</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003224877064345318</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>10</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.187619310236661</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9411054781105136</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.187619310236661</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>3678774904.682538</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001113312065716141</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>15</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.418692937952812</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.822026354306165</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.418692937952812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7714358548.400968</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003786785504505703</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>13</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.789395326149857</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9353251710054373</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.789395326149857</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>6353956809.753634</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005307590856683329</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>11</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.017080022380236</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9167072196191893</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.017080022380236</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7129590024.615221</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001106782937349051</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.095502621659173</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9847127291587917</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.095502621659173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6809943755.654548</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003904315023912089</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.860422058477475</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9110017233862945</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.860422058477475</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6004848890.693433</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003475580023508123</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>14</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.744712649078925</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9652461078306964</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.744712649078925</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4390056382.366596</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001223040668492743</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>12</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.157861551645746</v>
-      </c>
-      <c r="M32" t="n">
-        <v>-0.4399413450640599</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.157861551645746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6495864551.950377</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003283316401071307</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.38060991375152</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8621503108812656</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.38060991375152</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7420601786.421279</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.0040728366085428</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.01787498618344</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7575958147352552</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.01787498618344</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>4942193060.962329</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.001746650688346078</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>12</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.864696608962333</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.334334640868806</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.864696608962333</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5888698149.48077</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003864292905965007</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.98688186873463</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.025181668575231</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.98688186873463</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4030404998.877605</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005321826981532102</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.938693174358048</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.020627728088301</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.938693174358048</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4606850209.09201</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.00405597875285705</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>14</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.7314009651491061</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.589598537237578</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.084172239735939</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.589598537237578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>6015535446.151792</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002692287628382679</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.184773200650822</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8652085560126296</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.184773200650822</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5308511999.044492</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004817497932805307</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>12</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.06108524537972</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9902741497085901</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.06108524537972</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6668190918.545897</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001046447870906557</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.14826841618178</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9344334846005055</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.14826841618178</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6344976348.649988</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.003955573007908031</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>13</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.3070454687116725</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.66312680568512</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.6752543999861073</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.66312680568512</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5341379285.736025</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.004990829683195591</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>12</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.990422297041703</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.924936243052092</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.990422297041703</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5547091113.472044</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001903149984419349</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.707208213493441</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9348042952766422</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.707208213493441</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5468357970.368348</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001502576440438396</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>12</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.1535862882185</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.959250003880127</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.1535862882185</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9438930712.89856</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00353234223729954</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>12</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6918114359651225</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.895898681313828</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9771205736169877</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.895898681313828</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>7151923559.583292</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002581705966040372</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.682500166227141</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8942883610975259</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.682500166227141</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7491164844.665274</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002614081557380693</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.9452290072608595</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.334552938485977</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.307562966878926</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.334552938485977</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4977644437.945057</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.004943742262797317</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>15</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.8945277925971346</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.719170250329709</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.191547562307296</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.719170250329709</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7366656803.370627</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003107676701166052</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>4</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>4.911024935486985</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.049444024450218</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-4.911024935486985</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5212241270.116399</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005438674761309418</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>16</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.57849334670841</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9395515982550111</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.57849334670841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8163561921.082629</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001744736453166969</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.922904010039139</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8652085560126296</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.922904010039139</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4990655240.276752</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003090561723342229</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.142331450340736</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9433189892741886</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.142331450340736</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6647749307.488105</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004363817731804096</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.507072294324002</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8420789060053411</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.507072294324002</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5722788210.880589</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003446354578359634</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>14</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.662506100373465</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9050291678169997</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.662506100373465</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6243072239.59715</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002286021160778057</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.8775968079205791</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.025985306852614</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.224948421988284</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.025985306852614</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>8639956869.949385</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003764022161946927</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
         <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.628910615998119</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8140380809657127</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.628910615998119</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6455955474.344381</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002789103058983996</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
         <v>15</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.438943022705236</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.822026354306165</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.438943022705236</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5759771192.98673</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.003741413330655155</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.952603029450982</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.9075612090208082</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.952603029450982</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>3887949110.321082</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003376957536154511</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>13</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.643417696169494</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8351990213122066</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.643417696169494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4638702702.711</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003819049266935146</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>17</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.113093888736703</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9331663132159989</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.113093888736703</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5284131238.461451</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.004106343508675408</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.2526939722572</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8625521966105468</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.2526939722572</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8206074313.105165</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.005065074444351896</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>15</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.549263548758704</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9099318270702575</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.549263548758704</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3641145641.09603</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003321688321115351</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>3.086739190613002</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9061048530368396</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-3.086739190613002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4752945533.635384</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004148359641629157</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>14</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.03899978946727801</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.12200939216003</v>
-      </c>
-      <c r="M65" t="n">
-        <v>-0.3699626213667946</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.12200939216003</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5940172367.242476</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002928305975282213</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702345</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.16357888119015</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9288368805411944</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.16357888119015</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5056543000.875562</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004137639922397794</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>9</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.618284882310546</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.374606994418201</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9737795999207818</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.374606994418201</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5896438379.012188</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003067421469255279</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.453808518390157</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7220755688530966</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.453808518390157</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4126888471.157507</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001199560360763494</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.77490350150001</v>
-      </c>
-      <c r="M69" t="n">
-        <v>1.002485374372118</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.77490350150001</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5726379972.999588</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003486343001803886</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>8</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>4.291462860301383</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9146580185131534</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-4.291462860301383</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4385283825.907355</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003288291899365407</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>9</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.239633435046975</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8199956404923564</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.239633435046975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5671938005.391926</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002143415027057808</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
         <v>13</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.762251400014937</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.050832469177444</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.762251400014937</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>7583673949.828574</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001173105756381775</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.267907788412201</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9724227971628886</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.267907788412201</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6403966056.486409</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003736651776979026</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.926430097466725</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8878131526713346</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.926430097466725</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8081774375.446533</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003779828673016514</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>14</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.7133143193725432</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.754528511522871</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.029832014070307</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.754528511522871</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6609407598.461192</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002143560076765339</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>15</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.676278273045281</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9179189021913764</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.676278273045281</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7037388318.539598</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004463701196519547</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>8</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.514380432224479</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.999637874463091</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.514380432224479</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6757126088.423579</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004144247551644111</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>15</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.623713591550279</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9041835783878576</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.623713591550279</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8219084451.738061</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002370979700388133</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.907116209331482</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9906965274135741</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.907116209331482</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5952737397.702255</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.002320053115532929</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>16</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.01835206096082561</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.807946201875794</v>
-      </c>
-      <c r="M80" t="n">
-        <v>-0.4669747769533855</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.807946201875794</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5578223695.305975</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.00508243437047207</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>8</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.400945088130365</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9828053333676101</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.400945088130365</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6887720424.128874</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.005672324110775212</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>14</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8748270561033726</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.750529072905423</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.20142547825373</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.750529072905423</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>7507703762.82694</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002834922216823924</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>19</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.249205435735658</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8067450320890619</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.249205435735658</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7415130446.056425</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004667796025139117</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>15</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.56030635230615</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9502933403098586</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.56030635230615</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5591254649.430864</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002501700916043286</v>
       </c>
       <c r="G85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>17</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.381831956921587</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8943651715015217</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.381831956921587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>8429111758.113716</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001716921669931249</v>
       </c>
       <c r="G86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>14</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.935047182077262</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9855589263666903</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.935047182077262</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4495126225.401169</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001064592472041207</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>19</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.304171609265281</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9558361817418621</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.304171609265281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>6505205573.728588</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.005431835195865373</v>
       </c>
       <c r="G88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>12</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5524414683504043</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.804169214733052</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8655281970719366</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.804169214733052</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5540455967.419661</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003706033131507707</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>12</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.976301189462496</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9483167176453929</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.976301189462496</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6816219622.04189</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.002841507598707924</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>12</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.02111580053351757</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.800221662962008</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.3883313920346343</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.800221662962008</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7323471513.684686</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003115188633520494</v>
       </c>
       <c r="G91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>8</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>3.342044666058581</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8322818496640382</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-3.342044666058581</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4008270942.544322</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003265080335873735</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>11</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.063881250009638</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.049310148969596</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.063881250009638</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7872448355.456703</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.00117187192034478</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.78262267561177</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9286116474228476</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.78262267561177</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5978190166.447369</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001084621421960229</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>8</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>3.527519522503704</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.030458053001656</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-3.527519522503704</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5417275247.249702</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002746003693274106</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>9</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.220534342620296</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9385907415958197</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.220534342620296</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>9234626150.688969</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003037916135165145</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>17</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.1305488939471014</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.49207235333252</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.06587372827384899</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.49207235333252</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7964796051.248204</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004267516022760497</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>12</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.01190123931117</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.8939775873420596</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.01190123931117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8213470534.209183</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004310266039313409</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>11</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.7792594720299199</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.806968958696566</v>
-      </c>
-      <c r="M98" t="n">
-        <v>1.0888315451288</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.806968958696566</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3237351717.008294</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.006058473923302133</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>14</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.9026751309273702</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.720049723036393</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.236149623984719</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.720049723036393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6008052518.087553</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003429417899003506</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.059088893021913</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8429053018649039</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.059088893021913</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>5536981308.428362</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001627443664616248</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>14</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5377763248942565</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.956108049794535</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8875775093658541</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.956108049794535</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_62.xlsx
+++ b/output/fit_clients/fit_round_62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7992356642.431227</v>
+        <v>1707240794.977022</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003114145818044624</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>15</v>
+        <v>0.09435544522754317</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03367373607280484</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>853620353.6346471</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1966625654.201099</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1312455488189935</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03545710105450393</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4544667933.24704</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.005246733071228227</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>13</v>
+      <c r="J3" t="n">
+        <v>983312861.8756639</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6496122364.903666</v>
+        <v>3403383398.376505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002801201878450773</v>
-      </c>
-      <c r="G4" t="b">
+        <v>0.1136546395889486</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03059463480003692</v>
+      </c>
+      <c r="H4" t="b">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>13</v>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1701691670.989817</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4070889023.484901</v>
+        <v>3907050423.357185</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00447129741768741</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1049819636154473</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04760706662370224</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1953525221.396801</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7986669327.044726</v>
+        <v>2836414039.632296</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002181510518847482</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>14</v>
+        <v>0.1113361275282647</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.05075117995472248</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1418206958.784166</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8900667147.792402</v>
+        <v>2801204457.481983</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009972409602990681</v>
-      </c>
-      <c r="G7" t="b">
+        <v>0.0735054703412525</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03763936932359718</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>18</v>
+      <c r="I7" t="n">
+        <v>19</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1400602212.657568</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5010148232.751966</v>
+        <v>3447856095.283158</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002817269302766615</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>16</v>
+        <v>0.2104234888175009</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03275608206904853</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>20</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1723928150.836014</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5235341740.155175</v>
+        <v>1798580354.64869</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004219190163879134</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>20</v>
+        <v>0.1359209872321178</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0225713616045949</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>899290231.7765292</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4259357512.791825</v>
+        <v>4530025578.961961</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004057790001597776</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1765273739068204</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03540892420246313</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>26</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2265012852.294441</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3692096326.890337</v>
+        <v>4065777644.451138</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001206475608826222</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1853097071183148</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04739209481819216</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2032888839.439148</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7859027474.249505</v>
+        <v>2129408288.555033</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001696666861046749</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12" t="n">
-        <v>17</v>
+        <v>0.1546899009757298</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05292171945567439</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>21</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1064704082.451216</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4514316967.934163</v>
+        <v>3847841506.295739</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003729783037483243</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>13</v>
+        <v>0.07419838933422179</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02121949048249267</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>21</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1923920815.702708</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7092948938.658746</v>
+        <v>3770391751.228582</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002991107925778756</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>14</v>
+        <v>0.1258789180092026</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04274325907392008</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1885195854.187421</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>7848585090.108809</v>
+        <v>1829420999.398477</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003834127362855785</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>18</v>
+        <v>0.07057708318170819</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03676229292267116</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>914710659.7579784</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>5132570833.45418</v>
+        <v>2601357581.994697</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004177989363415908</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>20</v>
+        <v>0.08641437378923093</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03565287784403335</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1300678812.650356</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5835558088.451048</v>
+        <v>4291375654.978458</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00228071459026596</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>13</v>
+        <v>0.1639111317968471</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05199830896896875</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2145687847.588276</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4831046935.106727</v>
+        <v>3398090284.20805</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009795301269531827</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>16</v>
+        <v>0.1346038397254561</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02575913419706345</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>20</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1699045143.43289</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>2896846392.086007</v>
+        <v>918096755.5346546</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002132297915481143</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1500805562198292</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02386510036279594</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>459048386.9460534</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>6129254599.556828</v>
+        <v>2451306498.404525</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001296529080983846</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
+        <v>0.1394743729825857</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03072586223036316</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1225653227.341512</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5643154077.64247</v>
+        <v>2192946119.748768</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004216559895187265</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>12</v>
+        <v>0.09093121050237025</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.04441703552630148</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1096473077.254456</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4925182093.638412</v>
+        <v>3090663635.585338</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00555416514577377</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
+        <v>0.1210511800768755</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03688405006725537</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1545331873.779636</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>8482890999.281005</v>
+        <v>1296668110.347629</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001991365632645906</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>11</v>
+        <v>0.1752770795315584</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0445843594459862</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>648334075.2574466</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5205562330.681246</v>
+        <v>2684876569.269244</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003716261319976597</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>17</v>
+        <v>0.1263841567072656</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0307208632296062</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1342438340.966199</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5013837369.401047</v>
+        <v>999206517.2721081</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003224877064345318</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>13</v>
+        <v>0.09167062888359183</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02572177587851085</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>499603322.6768537</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>3678774904.682538</v>
+        <v>1100958070.2807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001113312065716141</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1116804585648248</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03488574585543318</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>550479031.8042086</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7714358548.400968</v>
+        <v>3638464482.568777</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003786785504505703</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>18</v>
+        <v>0.1313620716048208</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01837980586222257</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1819232269.274605</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>6353956809.753634</v>
+        <v>3382088366.066918</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005307590856683329</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>15</v>
+        <v>0.1517668152453487</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03109253086785746</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>21</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1691044227.32053</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7129590024.615221</v>
+        <v>4851220731.572914</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001106782937349051</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>17</v>
+        <v>0.1105546176735752</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03621991947840088</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>28</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2425610323.524918</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6809943755.654548</v>
+        <v>2128843789.860921</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003904315023912089</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>19</v>
+        <v>0.1052484810909056</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03580218318431837</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1064421946.989033</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6004848890.693433</v>
+        <v>1028524237.846487</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003475580023508123</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
+        <v>0.1013632345329635</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04108243403962245</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>514262110.6135684</v>
       </c>
     </row>
     <row r="32">
@@ -1323,19 +1513,25 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4390056382.366596</v>
+        <v>1792606161.162512</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001223040668492743</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.07422832106743678</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.0241112985296405</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>896303209.4279209</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6495864551.950377</v>
+        <v>2477279810.486215</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003283316401071307</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>14</v>
+        <v>0.173031688733093</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05846297046604873</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>18</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1238639945.283828</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7420601786.421279</v>
+        <v>1040742787.198434</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0040728366085428</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>19</v>
+        <v>0.09041293411467242</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.024434720449599</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>520371424.6749523</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>4942193060.962329</v>
+        <v>869680215.3107773</v>
       </c>
       <c r="F35" t="n">
-        <v>0.001746650688346078</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>16</v>
+        <v>0.1018658677251132</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04008211726659729</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>434840154.7193689</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5888698149.48077</v>
+        <v>2808861539.683321</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003864292905965007</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>18</v>
+        <v>0.1531199069902717</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02221832820398939</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>15</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1404430766.963115</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4030404998.877605</v>
+        <v>2222225799.081201</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005321826981532102</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>16</v>
+        <v>0.09900922572042621</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0329493982864565</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>18</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1111112957.279339</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4606850209.09201</v>
+        <v>1346070354.619951</v>
       </c>
       <c r="F38" t="n">
-        <v>0.00405597875285705</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.122464860903636</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0302041014016905</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>673035248.1788712</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>6015535446.151792</v>
+        <v>1538569659.431865</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002692287628382679</v>
-      </c>
-      <c r="G39" t="b">
-        <v>1</v>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
+        <v>0.1412068778837581</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02404804714229933</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>769284894.1952744</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5308511999.044492</v>
+        <v>1123725005.789499</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004817497932805307</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>19</v>
+        <v>0.1162423964550212</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05787133331098002</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>561862563.1661938</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6668190918.545897</v>
+        <v>1850241789.213426</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001046447870906557</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>18</v>
+        <v>0.164034131126104</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.02963290340211344</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>16</v>
+      </c>
+      <c r="J41" t="n">
+        <v>925120983.3509644</v>
       </c>
     </row>
     <row r="42">
@@ -1603,19 +1853,25 @@
         <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6344976348.649988</v>
+        <v>3975798405.566978</v>
       </c>
       <c r="F42" t="n">
-        <v>0.003955573007908031</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>15</v>
+        <v>0.09745952887023904</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04662599437180735</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1987899230.29856</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5341379285.736025</v>
+        <v>2440985972.239044</v>
       </c>
       <c r="F43" t="n">
-        <v>0.004990829683195591</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>15</v>
+        <v>0.1605523732830829</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01774150869697382</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>20</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1220493040.610331</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5547091113.472044</v>
+        <v>1912804100.857209</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001903149984419349</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16</v>
+        <v>0.08680838001249477</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02974980933021074</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>956402139.2598149</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5468357970.368348</v>
+        <v>2091663055.379698</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001502576440438396</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1216006485609218</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03941247195153975</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1045831527.702183</v>
       </c>
     </row>
     <row r="46">
@@ -1715,19 +1989,25 @@
         <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9438930712.89856</v>
+        <v>3944906046.218633</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00353234223729954</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>10</v>
+        <v>0.1293990375424317</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04921705313443026</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>22</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1972452989.376176</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>7151923559.583292</v>
+        <v>5108840440.003741</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002581705966040372</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
+        <v>0.1430837660378855</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.03641755609578742</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>16</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2554420281.859233</v>
       </c>
     </row>
     <row r="48">
@@ -1771,19 +2057,25 @@
         <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7491164844.665274</v>
+        <v>3670892377.837292</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002614081557380693</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>11</v>
+        <v>0.1066234519627498</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03225124726342202</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>22</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1835446242.321942</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4977644437.945057</v>
+        <v>1443709464.798005</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004943742262797317</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1639379367884813</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02910344138613554</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>721854773.0696803</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7366656803.370627</v>
+        <v>3250882046.514341</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003107676701166052</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>18</v>
+        <v>0.1083823593458056</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04021977019696639</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>21</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1625441065.128549</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5212241270.116399</v>
+        <v>1330742277.09221</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005438674761309418</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1234945419167514</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04857619028384445</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>665371168.7983139</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8163561921.082629</v>
+        <v>3875776126.987042</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001744736453166969</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>15</v>
+        <v>0.09652731134723364</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05260288098230672</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>26</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1937888127.182785</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4990655240.276752</v>
+        <v>3670638990.054282</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003090561723342229</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>12</v>
+        <v>0.186140888871871</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03219142978754276</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>18</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1835319481.049387</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6647749307.488105</v>
+        <v>4131886787.827605</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004363817731804096</v>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>17</v>
+        <v>0.1155427256912136</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0406561407341878</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2065943468.232987</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>5722788210.880589</v>
+        <v>4544657430.130126</v>
       </c>
       <c r="F55" t="n">
-        <v>0.003446354578359634</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>20</v>
+        <v>0.1374680647987916</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02402677995548412</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>16</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2272328713.885125</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6243072239.59715</v>
+        <v>1162945402.184336</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002286021160778057</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
+        <v>0.09978844466173473</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.03925479451633156</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>581472793.1202922</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>8639956869.949385</v>
+        <v>3427322382.603738</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003764022161946927</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>14</v>
+        <v>0.1207425068108241</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02322131720441215</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>20</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1713661231.47157</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6455955474.344381</v>
+        <v>1233601513.869962</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002789103058983996</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>15</v>
+        <v>0.1849111567937959</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0264551627772196</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>616800812.2521983</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5759771192.98673</v>
+        <v>3290652270.360476</v>
       </c>
       <c r="F59" t="n">
-        <v>0.003741413330655155</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>8</v>
+        <v>0.1242437491029277</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03740953177102818</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>17</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1645326145.239125</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3887949110.321082</v>
+        <v>2408889000.404243</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003376957536154511</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1417317512418807</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02629222711979697</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>20</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1204444508.449411</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4638702702.711</v>
+        <v>2584026476.315436</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003819049266935146</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>13</v>
+        <v>0.1423690420190634</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.01992441438303278</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>21</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1292013257.74284</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5284131238.461451</v>
+        <v>2084150449.565574</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004106343508675408</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>11</v>
+        <v>0.1599179888946733</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04263699704240585</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1042075295.394411</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8206074313.105165</v>
+        <v>3947984813.121926</v>
       </c>
       <c r="F63" t="n">
-        <v>0.005065074444351896</v>
-      </c>
-      <c r="G63" t="b">
+        <v>0.0784181703539263</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03056000761482958</v>
+      </c>
+      <c r="H63" t="b">
         <v>1</v>
       </c>
-      <c r="H63" t="n">
-        <v>14</v>
+      <c r="I63" t="n">
+        <v>17</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1973992471.159129</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>491</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3529012231.298877</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1281236565879411</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02890267134063097</v>
+      </c>
+      <c r="H64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="n">
-        <v>545</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3641145641.09603</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.003321688321115351</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+      <c r="I64" t="n">
+        <v>19</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1764506118.273901</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4752945533.635384</v>
+        <v>4053438608.438357</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004148359641629157</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>17</v>
+        <v>0.1422552218928846</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02839165082873735</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>22</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2026719319.471701</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5940172367.242476</v>
+        <v>4513035419.743377</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002928305975282213</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>12</v>
+        <v>0.104011466672281</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03633953496575092</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>18</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2256517710.843693</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5056543000.875562</v>
+        <v>3261099549.577488</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004137639922397794</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
+        <v>0.07216658769097448</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.0467715305698129</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>19</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1630549770.877642</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5896438379.012188</v>
+        <v>5058270886.321456</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003067421469255279</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>13</v>
+        <v>0.1605153584703746</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03707353378972907</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>20</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2529135502.96482</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4126888471.157507</v>
+        <v>1978180659.236743</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001199560360763494</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>14</v>
+        <v>0.1350374882423243</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.03743098441696214</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>989090331.6640627</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5726379972.999588</v>
+        <v>2960428826.875243</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003486343001803886</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
+        <v>0.09251995874790404</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03322344882755842</v>
+      </c>
+      <c r="H70" t="b">
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
         <v>17</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1480214387.729832</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4385283825.907355</v>
+        <v>3526963726.978385</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003288291899365407</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1146345221866127</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02945756467510784</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>23</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1763481859.151091</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5671938005.391926</v>
+        <v>1947487172.507044</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002143415027057808</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>13</v>
+        <v>0.1022107960901221</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03661393062609986</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>973743540.9544115</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>7583673949.828574</v>
+        <v>2641457888.540448</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001173105756381775</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15</v>
+        <v>0.07679982205661129</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04929631553433187</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1320728972.948913</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6403966056.486409</v>
+        <v>3926336363.3812</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003736651776979026</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>14</v>
+        <v>0.1755394667932944</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0245538260314665</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>21</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1963168166.913674</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8081774375.446533</v>
+        <v>2137837703.354297</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003779828673016514</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>12</v>
+        <v>0.1636990046050783</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02599869677103799</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1068918802.79666</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6609407598.461192</v>
+        <v>4433554669.016295</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002143560076765339</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.07560982685009665</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02604475162373128</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>13</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2216777337.310432</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7037388318.539598</v>
+        <v>1796926300.007381</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004463701196519547</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20</v>
+        <v>0.1265750623171538</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02927884420602447</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>898463181.39881</v>
       </c>
     </row>
     <row r="78">
@@ -2611,19 +3077,25 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6757126088.423579</v>
+        <v>3792491378.206504</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004144247551644111</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>12</v>
+        <v>0.1298397032438945</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03831273893726581</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>23</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1896245669.549097</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8219084451.738061</v>
+        <v>1261662743.36923</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002370979700388133</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>13</v>
+        <v>0.1182001647291465</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03596840243971892</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>630831364.1236849</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5952737397.702255</v>
+        <v>4380467776.970865</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002320053115532929</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>19</v>
+        <v>0.10248559534115</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02400275807999741</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2190233906.768269</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5578223695.305975</v>
+        <v>4443643714.005379</v>
       </c>
       <c r="F81" t="n">
-        <v>0.00508243437047207</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>13</v>
+        <v>0.09189964901352701</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0293510241340153</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>14</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2221821836.594853</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6887720424.128874</v>
+        <v>3533058273.498013</v>
       </c>
       <c r="F82" t="n">
-        <v>0.005672324110775212</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>12</v>
+        <v>0.1403020606911027</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01914343335372502</v>
+      </c>
+      <c r="H82" t="b">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>23</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1766529202.468305</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>7507703762.82694</v>
+        <v>1545559996.893358</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002834922216823924</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>16</v>
+        <v>0.1180082108516099</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0375237344103178</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>772779927.0945066</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7415130446.056425</v>
+        <v>1991206488.71182</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004667796025139117</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>17</v>
+        <v>0.1041150017110972</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04219283334751722</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>995603250.542904</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5591254649.430864</v>
+        <v>3089490634.01661</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002501700916043286</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
+        <v>0.182810019793174</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03564039115142014</v>
+      </c>
+      <c r="H85" t="b">
         <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>23</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1544745386.926824</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>8429111758.113716</v>
+        <v>2595840953.582066</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001716921669931249</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>16</v>
+        <v>0.1203143118606854</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02017089855694735</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>5</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1297920587.174995</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4495126225.401169</v>
+        <v>1472985182.511708</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001064592472041207</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1598391318864248</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04010386855134606</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>736492716.7163982</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>555</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3225177089.761467</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.160875085581341</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03494609469353337</v>
+      </c>
+      <c r="H88" t="b">
         <v>1</v>
       </c>
-      <c r="D88" t="n">
-        <v>477</v>
-      </c>
-      <c r="E88" t="n">
-        <v>6505205573.728588</v>
-      </c>
-      <c r="F88" t="n">
-        <v>0.005431835195865373</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>14</v>
+      <c r="I88" t="n">
+        <v>24</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1612588597.450318</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5540455967.419661</v>
+        <v>3265373034.588802</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003706033131507707</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>13</v>
+        <v>0.09955941708226314</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02889842288028754</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1632686535.842616</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6816219622.04189</v>
+        <v>1721993830.982016</v>
       </c>
       <c r="F90" t="n">
-        <v>0.002841507598707924</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>11</v>
+        <v>0.09074145278347526</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.05001701525428121</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>860996934.7429577</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7323471513.684686</v>
+        <v>1321066311.838085</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003115188633520494</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>19</v>
+        <v>0.1857768963942826</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03801606570817125</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>660533218.5576165</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4008270942.544322</v>
+        <v>1837460888.658926</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003265080335873735</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08851344514195172</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04044754523935147</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>13</v>
+      </c>
+      <c r="J92" t="n">
+        <v>918730378.113008</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7872448355.456703</v>
+        <v>3647375926.750498</v>
       </c>
       <c r="F93" t="n">
-        <v>0.00117187192034478</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>22</v>
+        <v>0.1007868491569319</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03636263083164316</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>18</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1823687986.671858</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5978190166.447369</v>
+        <v>2171586322.044155</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001084621421960229</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>19</v>
+        <v>0.1287127054405993</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03232413711072413</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1085793181.581626</v>
       </c>
     </row>
     <row r="95">
@@ -3087,19 +3655,25 @@
         <v>2</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5417275247.249702</v>
+        <v>2022127538.42243</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002746003693274106</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.1380619831418462</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04736642063382967</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>15</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1011063839.945103</v>
       </c>
     </row>
     <row r="96">
@@ -3115,19 +3689,25 @@
         <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>9234626150.688969</v>
+        <v>1807887896.97802</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003037916135165145</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>16</v>
+        <v>0.1304261598536419</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03799691802982101</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>903943955.8610328</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7964796051.248204</v>
+        <v>3254759199.164488</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004267516022760497</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>15</v>
+        <v>0.1723559214290763</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01922372616587515</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>20</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1627379595.929551</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8213470534.209183</v>
+        <v>2410052882.823987</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004310266039313409</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>23</v>
+        <v>0.08735965192106786</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03205356068249092</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>17</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1205026385.9641</v>
       </c>
     </row>
     <row r="99">
@@ -3199,19 +3791,25 @@
         <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3237351717.008294</v>
+        <v>2591885736.531525</v>
       </c>
       <c r="F99" t="n">
-        <v>0.006058473923302133</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09008565681894846</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0339091288876627</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>19</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1295942824.512786</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6008052518.087553</v>
+        <v>4011684222.497905</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003429417899003506</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.128911736985645</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02695022179950862</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>19</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2005842182.735</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>5536981308.428362</v>
+        <v>2195848763.530253</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001627443664616248</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>20</v>
+        <v>0.1575363502485629</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04972011724078096</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1097924364.416016</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_62.xlsx
+++ b/output/fit_clients/fit_round_62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1707240794.977022</v>
+        <v>2032694505.783675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09435544522754317</v>
+        <v>0.1046373284169222</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03367373607280484</v>
+        <v>0.03347195042970029</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>853620353.6346471</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1966625654.201099</v>
+        <v>1910343720.465661</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1312455488189935</v>
+        <v>0.1731345766671583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03545710105450393</v>
+        <v>0.03668227491469292</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>983312861.8756639</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3403383398.376505</v>
+        <v>3907581415.737568</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1136546395889486</v>
+        <v>0.146907802208982</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03059463480003692</v>
+        <v>0.02989644500184608</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1701691670.989817</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3907050423.357185</v>
+        <v>3424166796.381551</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1049819636154473</v>
+        <v>0.1008946879728193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04760706662370224</v>
+        <v>0.03518021691521848</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>23</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1953525221.396801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2836414039.632296</v>
+        <v>2238446537.945161</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1113361275282647</v>
+        <v>0.1474481507812549</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05075117995472248</v>
+        <v>0.03887667532312607</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>10</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1418206958.784166</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2801204457.481983</v>
+        <v>2491871241.886173</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0735054703412525</v>
+        <v>0.06643350538686436</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03763936932359718</v>
+        <v>0.04418200048131454</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>19</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1400602212.657568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3447856095.283158</v>
+        <v>2880884268.200962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2104234888175009</v>
+        <v>0.2193208973149415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03275608206904853</v>
+        <v>0.02648648486851177</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>20</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1723928150.836014</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1798580354.64869</v>
+        <v>1749908098.232823</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1359209872321178</v>
+        <v>0.1623709467931061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0225713616045949</v>
+        <v>0.03100890344569667</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>899290231.7765292</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4530025578.961961</v>
+        <v>3629998434.193167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1765273739068204</v>
+        <v>0.1913409487559811</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03540892420246313</v>
+        <v>0.03721068669899669</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>26</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2265012852.294441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4065777644.451138</v>
+        <v>4052060427.783544</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1853097071183148</v>
+        <v>0.1507970296029233</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04739209481819216</v>
+        <v>0.03453635489762889</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>26</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2032888839.439148</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2129408288.555033</v>
+        <v>2145834714.176631</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1546899009757298</v>
+        <v>0.1536401526397046</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05292171945567439</v>
+        <v>0.04610693065896021</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>21</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1064704082.451216</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3847841506.295739</v>
+        <v>4550201383.552772</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07419838933422179</v>
+        <v>0.07450269187008486</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02121949048249267</v>
+        <v>0.02949261982719749</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>21</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1923920815.702708</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3770391751.228582</v>
+        <v>3127484329.738599</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1258789180092026</v>
+        <v>0.1531926209342196</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04274325907392008</v>
+        <v>0.03555416662135534</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>20</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1885195854.187421</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1829420999.398477</v>
+        <v>1246772948.27322</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07057708318170819</v>
+        <v>0.08935844725694898</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03676229292267116</v>
+        <v>0.04403663513157142</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>914710659.7579784</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2601357581.994697</v>
+        <v>2744446196.213958</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08641437378923093</v>
+        <v>0.1133033352904922</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03565287784403335</v>
+        <v>0.04270559167854379</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>10</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1300678812.650356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4291375654.978458</v>
+        <v>4353069901.012772</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1639111317968471</v>
+        <v>0.1172585477320912</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05199830896896875</v>
+        <v>0.04535748901949687</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2145687847.588276</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3398090284.20805</v>
+        <v>3122046499.767891</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1346038397254561</v>
+        <v>0.1157758346995186</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02575913419706345</v>
+        <v>0.02723687370901983</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>20</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1699045143.43289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>918096755.5346546</v>
+        <v>1178012040.454631</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1500805562198292</v>
+        <v>0.1618595370782585</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02386510036279594</v>
+        <v>0.02002174775319499</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>459048386.9460534</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2451306498.404525</v>
+        <v>2513737874.019809</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1394743729825857</v>
+        <v>0.1327932594165174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03072586223036316</v>
+        <v>0.021180678532354</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1225653227.341512</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2192946119.748768</v>
+        <v>2127106485.385469</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09093121050237025</v>
+        <v>0.069068220261744</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04441703552630148</v>
+        <v>0.03527546163121052</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1096473077.254456</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3090663635.585338</v>
+        <v>3767578064.067029</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1210511800768755</v>
+        <v>0.1298560401125722</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03688405006725537</v>
+        <v>0.04523476855082242</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1545331873.779636</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1296668110.347629</v>
+        <v>1498125660.014579</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1752770795315584</v>
+        <v>0.1859844688163287</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0445843594459862</v>
+        <v>0.04685009116273129</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>648334075.2574466</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2684876569.269244</v>
+        <v>3176300117.08974</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1263841567072656</v>
+        <v>0.1130122267584996</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0307208632296062</v>
+        <v>0.02754601891500493</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1342438340.966199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>999206517.2721081</v>
+        <v>1399519467.734908</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09167062888359183</v>
+        <v>0.08173376648546522</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02572177587851085</v>
+        <v>0.02880972820225151</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>499603322.6768537</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1100958070.2807</v>
+        <v>1403529250.401097</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1116804585648248</v>
+        <v>0.08696311264026291</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03488574585543318</v>
+        <v>0.0347104692084346</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>550479031.8042086</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3638464482.568777</v>
+        <v>4658593194.168652</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1313620716048208</v>
+        <v>0.1557304621116418</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01837980586222257</v>
+        <v>0.01776773062141745</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>14</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1819232269.274605</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3382088366.066918</v>
+        <v>3761184284.770201</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1517668152453487</v>
+        <v>0.1274024982047611</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03109253086785746</v>
+        <v>0.03551316706052354</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1691044227.32053</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4851220731.572914</v>
+        <v>5156107633.964776</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1105546176735752</v>
+        <v>0.1511013006593693</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03621991947840088</v>
+        <v>0.03850578089584804</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>28</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2425610323.524918</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2128843789.860921</v>
+        <v>2333017098.071932</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1052484810909056</v>
+        <v>0.1064051948168843</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03580218318431837</v>
+        <v>0.02854076563328571</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1064421946.989033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1028524237.846487</v>
+        <v>1450455063.951649</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1013632345329635</v>
+        <v>0.07847328636913529</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04108243403962245</v>
+        <v>0.04038269294059422</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>514262110.6135684</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1792606161.162512</v>
+        <v>1794460650.998063</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07422832106743678</v>
+        <v>0.1167852807239884</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0241112985296405</v>
+        <v>0.02957142296960617</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>896303209.4279209</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2477279810.486215</v>
+        <v>2319663365.671561</v>
       </c>
       <c r="F33" t="n">
-        <v>0.173031688733093</v>
+        <v>0.1790758369244375</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05846297046604873</v>
+        <v>0.04090567501673156</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>18</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1238639945.283828</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1040742787.198434</v>
+        <v>992412240.8468864</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09041293411467242</v>
+        <v>0.07598334986756962</v>
       </c>
       <c r="G34" t="n">
-        <v>0.024434720449599</v>
+        <v>0.0218207054634767</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>520371424.6749523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>869680215.3107773</v>
+        <v>1154369431.116241</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1018658677251132</v>
+        <v>0.08614491771032547</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04008211726659729</v>
+        <v>0.03746841075099826</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>434840154.7193689</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2808861539.683321</v>
+        <v>2385932408.691166</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1531199069902717</v>
+        <v>0.1613133883200865</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02221832820398939</v>
+        <v>0.01776311721664767</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1404430766.963115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2222225799.081201</v>
+        <v>2584828040.508169</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09900922572042621</v>
+        <v>0.1033796882830777</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0329493982864565</v>
+        <v>0.03918046300408315</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>18</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1111112957.279339</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1346070354.619951</v>
+        <v>1332625131.074514</v>
       </c>
       <c r="F38" t="n">
-        <v>0.122464860903636</v>
+        <v>0.1038494111735039</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0302041014016905</v>
+        <v>0.02607164916773969</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>673035248.1788712</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1538569659.431865</v>
+        <v>1530298438.311706</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1412068778837581</v>
+        <v>0.1842344094950497</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02404804714229933</v>
+        <v>0.02277899589443147</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>769284894.1952744</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1123725005.789499</v>
+        <v>1495764998.057035</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1162423964550212</v>
+        <v>0.1221929647673018</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05787133331098002</v>
+        <v>0.05870479700884607</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>561862563.1661938</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1850241789.213426</v>
+        <v>2833675111.096643</v>
       </c>
       <c r="F41" t="n">
-        <v>0.164034131126104</v>
+        <v>0.1069214533745921</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02963290340211344</v>
+        <v>0.04429707192681786</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>16</v>
-      </c>
-      <c r="J41" t="n">
-        <v>925120983.3509644</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3975798405.566978</v>
+        <v>3039233480.406666</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09745952887023904</v>
+        <v>0.08807326554115927</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04662599437180735</v>
+        <v>0.04210034013978117</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>20</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1987899230.29856</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2440985972.239044</v>
+        <v>2099889228.938542</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1605523732830829</v>
+        <v>0.138263218465376</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01774150869697382</v>
+        <v>0.02188062322269942</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>20</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1220493040.610331</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1912804100.857209</v>
+        <v>2197521320.92674</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08680838001249477</v>
+        <v>0.08209674573714559</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02974980933021074</v>
+        <v>0.03684146770651319</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>956402139.2598149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2091663055.379698</v>
+        <v>1629858310.560972</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1216006485609218</v>
+        <v>0.1290437671593169</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03941247195153975</v>
+        <v>0.04769585063272261</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1045831527.702183</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3944906046.218633</v>
+        <v>4121821059.284122</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1293990375424317</v>
+        <v>0.162009929383042</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04921705313443026</v>
+        <v>0.05315292048902964</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>22</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1972452989.376176</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5108840440.003741</v>
+        <v>4132801431.18378</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1430837660378855</v>
+        <v>0.171004022409986</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03641755609578742</v>
+        <v>0.0461902687349672</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>16</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2554420281.859233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3670892377.837292</v>
+        <v>3862019511.123188</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1066234519627498</v>
+        <v>0.08112446811987076</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03225124726342202</v>
+        <v>0.03636535915060541</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>22</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1835446242.321942</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1443709464.798005</v>
+        <v>1681746105.348092</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1639379367884813</v>
+        <v>0.1246725206867801</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02910344138613554</v>
+        <v>0.04323612720142123</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>721854773.0696803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3250882046.514341</v>
+        <v>3565838022.662622</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1083823593458056</v>
+        <v>0.1128858548461105</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04021977019696639</v>
+        <v>0.03308245818929641</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>21</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1625441065.128549</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1330742277.09221</v>
+        <v>1414691823.827342</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1234945419167514</v>
+        <v>0.1793683827655979</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04857619028384445</v>
+        <v>0.04787510767240551</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>665371168.7983139</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3875776126.987042</v>
+        <v>4696581200.999754</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09652731134723364</v>
+        <v>0.1204034316835563</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05260288098230672</v>
+        <v>0.06051983672250252</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>26</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1937888127.182785</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3670638990.054282</v>
+        <v>3574036034.783379</v>
       </c>
       <c r="F53" t="n">
-        <v>0.186140888871871</v>
+        <v>0.1338800441827886</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03219142978754276</v>
+        <v>0.02373299147807737</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>18</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1835319481.049387</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4131886787.827605</v>
+        <v>4721679428.336475</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1155427256912136</v>
+        <v>0.1218917260303861</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0406561407341878</v>
+        <v>0.04084842263978879</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>20</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2065943468.232987</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4544657430.130126</v>
+        <v>3316853136.944148</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1374680647987916</v>
+        <v>0.2052243042627368</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02402677995548412</v>
+        <v>0.02575441605352111</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>16</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2272328713.885125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1162945402.184336</v>
+        <v>1691001437.725343</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09978844466173473</v>
+        <v>0.1251087648078541</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03925479451633156</v>
+        <v>0.0410969124903654</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>581472793.1202922</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3427322382.603738</v>
+        <v>3241948529.677014</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1207425068108241</v>
+        <v>0.1486985077097796</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02322131720441215</v>
+        <v>0.02268821579128073</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>20</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1713661231.47157</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1233601513.869962</v>
+        <v>1800827667.05167</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1849111567937959</v>
+        <v>0.1289203292991561</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0264551627772196</v>
+        <v>0.03606115287691867</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>616800812.2521983</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3290652270.360476</v>
+        <v>4132541110.590008</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1242437491029277</v>
+        <v>0.1216426310217529</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03740953177102818</v>
+        <v>0.04447066513809896</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>17</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1645326145.239125</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2408889000.404243</v>
+        <v>2633525875.434084</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1417317512418807</v>
+        <v>0.1611446244279582</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02629222711979697</v>
+        <v>0.02803263323889804</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1204444508.449411</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2584026476.315436</v>
+        <v>3117414306.798739</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1423690420190634</v>
+        <v>0.1555959652853627</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01992441438303278</v>
+        <v>0.0240850584076685</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>21</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1292013257.74284</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2084150449.565574</v>
+        <v>2121504932.857937</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1599179888946733</v>
+        <v>0.1175743289020747</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04263699704240585</v>
+        <v>0.03284435561193155</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1042075295.394411</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3947984813.121926</v>
+        <v>3611447273.037271</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0784181703539263</v>
+        <v>0.09444778835760873</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03056000761482958</v>
+        <v>0.0316510045512157</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>17</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1973992471.159129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3529012231.298877</v>
+        <v>4770090132.274592</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1281236565879411</v>
+        <v>0.1351115324340792</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02890267134063097</v>
+        <v>0.02904306214298727</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>19</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1764506118.273901</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4053438608.438357</v>
+        <v>4538855338.343747</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1422552218928846</v>
+        <v>0.1599328911391564</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02839165082873735</v>
+        <v>0.03131474729712105</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>22</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2026719319.471701</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4513035419.743377</v>
+        <v>5147197770.917866</v>
       </c>
       <c r="F66" t="n">
-        <v>0.104011466672281</v>
+        <v>0.1221644211056269</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03633953496575092</v>
+        <v>0.03453041340860841</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2256517710.843693</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3261099549.577488</v>
+        <v>2478052611.409743</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07216658769097448</v>
+        <v>0.09699188406201517</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0467715305698129</v>
+        <v>0.0502542545892934</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>19</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1630549770.877642</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5058270886.321456</v>
+        <v>5963480734.003304</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1605153584703746</v>
+        <v>0.1601697369880393</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03707353378972907</v>
+        <v>0.03959486287280547</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>20</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2529135502.96482</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1978180659.236743</v>
+        <v>2171716294.702385</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1350374882423243</v>
+        <v>0.1563069417528345</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03743098441696214</v>
+        <v>0.04597733475471203</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>989090331.6640627</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2960428826.875243</v>
+        <v>3025905168.050151</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09251995874790404</v>
+        <v>0.1021271689539862</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03322344882755842</v>
+        <v>0.04741245481247061</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>17</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1480214387.729832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3526963726.978385</v>
+        <v>4490984637.86677</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1146345221866127</v>
+        <v>0.1134021269388597</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02945756467510784</v>
+        <v>0.02928799676580084</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>23</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1763481859.151091</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1947487172.507044</v>
+        <v>2190708301.313328</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1022107960901221</v>
+        <v>0.09591016083293255</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03661393062609986</v>
+        <v>0.03805713711713163</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>973743540.9544115</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2641457888.540448</v>
+        <v>3440562019.786266</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07679982205661129</v>
+        <v>0.0702290692306958</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04929631553433187</v>
+        <v>0.03721983930098932</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>24</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1320728972.948913</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3926336363.3812</v>
+        <v>2599623077.628411</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1755394667932944</v>
+        <v>0.1848481405585958</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0245538260314665</v>
+        <v>0.0228223969859675</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1963168166.913674</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2137837703.354297</v>
+        <v>2321600374.933456</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1636990046050783</v>
+        <v>0.1253856066143038</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02599869677103799</v>
+        <v>0.02380075717837097</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1068918802.79666</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4433554669.016295</v>
+        <v>4417706540.148416</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07560982685009665</v>
+        <v>0.1006955597097883</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02604475162373128</v>
+        <v>0.0270776775829158</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2216777337.310432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1796926300.007381</v>
+        <v>2218287426.42625</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1265750623171538</v>
+        <v>0.1635858083400834</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02927884420602447</v>
+        <v>0.02676985662527334</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>898463181.39881</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3792491378.206504</v>
+        <v>2908768052.907931</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1298397032438945</v>
+        <v>0.09244666560716731</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03831273893726581</v>
+        <v>0.03951140932594717</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>23</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1896245669.549097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1261662743.36923</v>
+        <v>1311306353.849123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1182001647291465</v>
+        <v>0.1571389766994042</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03596840243971892</v>
+        <v>0.02858564516545485</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>630831364.1236849</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4380467776.970865</v>
+        <v>4895426631.672739</v>
       </c>
       <c r="F80" t="n">
-        <v>0.10248559534115</v>
+        <v>0.06926298934266435</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02400275807999741</v>
+        <v>0.0269501297344967</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2190233906.768269</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4443643714.005379</v>
+        <v>3289871786.86231</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09189964901352701</v>
+        <v>0.09597098041806384</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0293510241340153</v>
+        <v>0.02022942463324614</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>14</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2221821836.594853</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3533058273.498013</v>
+        <v>3746741057.894632</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1403020606911027</v>
+        <v>0.1343451684747834</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01914343335372502</v>
+        <v>0.02574127206995445</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>23</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1766529202.468305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1545559996.893358</v>
+        <v>2210357887.400029</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1180082108516099</v>
+        <v>0.1231308339203946</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0375237344103178</v>
+        <v>0.027483691637118</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>772779927.0945066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1991206488.71182</v>
+        <v>1830403700.541144</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1041150017110972</v>
+        <v>0.1155739976159023</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04219283334751722</v>
+        <v>0.0393917140377825</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>995603250.542904</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3089490634.01661</v>
+        <v>2292530452.816037</v>
       </c>
       <c r="F85" t="n">
-        <v>0.182810019793174</v>
+        <v>0.1784266462629139</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03564039115142014</v>
+        <v>0.04818025196191979</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>23</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1544745386.926824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2595840953.582066</v>
+        <v>1964454939.682967</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1203143118606854</v>
+        <v>0.1498382587689782</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02017089855694735</v>
+        <v>0.01861164593951031</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1297920587.174995</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1472985182.511708</v>
+        <v>1445440021.695858</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1598391318864248</v>
+        <v>0.1730112210145265</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04010386855134606</v>
+        <v>0.02977435649713365</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>736492716.7163982</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3225177089.761467</v>
+        <v>3585094281.645444</v>
       </c>
       <c r="F88" t="n">
-        <v>0.160875085581341</v>
+        <v>0.125938476792666</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03494609469353337</v>
+        <v>0.02727041528763895</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>24</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1612588597.450318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3265373034.588802</v>
+        <v>3319556874.885601</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09955941708226314</v>
+        <v>0.1414126870412099</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02889842288028754</v>
+        <v>0.03837428190493487</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>21</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1632686535.842616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1721993830.982016</v>
+        <v>1515464319.677909</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09074145278347526</v>
+        <v>0.1241495763608319</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05001701525428121</v>
+        <v>0.04175486981710244</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>860996934.7429577</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1321066311.838085</v>
+        <v>1926134542.828372</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1857768963942826</v>
+        <v>0.1872755322634977</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03801606570817125</v>
+        <v>0.05842517744648803</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>660533218.5576165</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1837460888.658926</v>
+        <v>2109794705.61376</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08851344514195172</v>
+        <v>0.1084106362269895</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04044754523935147</v>
+        <v>0.0298247908645883</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>13</v>
-      </c>
-      <c r="J92" t="n">
-        <v>918730378.113008</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3647375926.750498</v>
+        <v>3259452409.352665</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1007868491569319</v>
+        <v>0.0899118089567518</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03636263083164316</v>
+        <v>0.0408252585418996</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>18</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1823687986.671858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2171586322.044155</v>
+        <v>1709730758.539868</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1287127054405993</v>
+        <v>0.1463106612423198</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03232413711072413</v>
+        <v>0.03981302164228472</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1085793181.581626</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2022127538.42243</v>
+        <v>3017035595.119913</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1380619831418462</v>
+        <v>0.1049143783510998</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04736642063382967</v>
+        <v>0.03875911966100192</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1011063839.945103</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1807887896.97802</v>
+        <v>1780197442.169094</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1304261598536419</v>
+        <v>0.09797760060946904</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03799691802982101</v>
+        <v>0.04441851247708296</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>903943955.8610328</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3254759199.164488</v>
+        <v>4834879033.196064</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1723559214290763</v>
+        <v>0.1502268420375462</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01922372616587515</v>
+        <v>0.02814726109006532</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>20</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1627379595.929551</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2410052882.823987</v>
+        <v>3850686932.137279</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08735965192106786</v>
+        <v>0.08954981824011812</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03205356068249092</v>
+        <v>0.02622098601785275</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1205026385.9641</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2591885736.531525</v>
+        <v>2182911903.050127</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09008565681894846</v>
+        <v>0.1283713697740721</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0339091288876627</v>
+        <v>0.02170383565986334</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>19</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1295942824.512786</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4011684222.497905</v>
+        <v>3745451545.8653</v>
       </c>
       <c r="F100" t="n">
-        <v>0.128911736985645</v>
+        <v>0.1115229029014542</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02695022179950862</v>
+        <v>0.01772810072092238</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>19</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2005842182.735</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2195848763.530253</v>
+        <v>3047558332.651258</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1575363502485629</v>
+        <v>0.1623069801626801</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04972011724078096</v>
+        <v>0.04258431739058587</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>26</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1097924364.416016</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_62.xlsx
+++ b/output/fit_clients/fit_round_62.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2032694505.783675</v>
+        <v>2014098827.518636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1046373284169222</v>
+        <v>0.08443941701572703</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03347195042970029</v>
+        <v>0.03845145048886312</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1910343720.465661</v>
+        <v>1690687107.824245</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1731345766671583</v>
+        <v>0.1294319991926631</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03668227491469292</v>
+        <v>0.04595700891158763</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3907581415.737568</v>
+        <v>4688724339.341502</v>
       </c>
       <c r="F4" t="n">
-        <v>0.146907802208982</v>
+        <v>0.1194272273852231</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02989644500184608</v>
+        <v>0.0267802364402984</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3424166796.381551</v>
+        <v>3278783542.040492</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1008946879728193</v>
+        <v>0.108309283273981</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03518021691521848</v>
+        <v>0.04111138426305342</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2238446537.945161</v>
+        <v>2116379501.677195</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1474481507812549</v>
+        <v>0.1437911887065274</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03887667532312607</v>
+        <v>0.04269624581803137</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2491871241.886173</v>
+        <v>2361850953.779308</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06643350538686436</v>
+        <v>0.07218682048686367</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04418200048131454</v>
+        <v>0.04520118907806895</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2880884268.200962</v>
+        <v>3636253306.647489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2193208973149415</v>
+        <v>0.1645839242801276</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02648648486851177</v>
+        <v>0.03096695860430127</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1749908098.232823</v>
+        <v>1796729514.595835</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1623709467931061</v>
+        <v>0.1939490593491587</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03100890344569667</v>
+        <v>0.03040222596513542</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3629998434.193167</v>
+        <v>4914388937.958553</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1913409487559811</v>
+        <v>0.1380837067635552</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03721068669899669</v>
+        <v>0.05194226804947333</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4052060427.783544</v>
+        <v>2938350751.241389</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1507970296029233</v>
+        <v>0.1753081259780885</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03453635489762889</v>
+        <v>0.04855143457260707</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2145834714.176631</v>
+        <v>2110911626.577755</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1536401526397046</v>
+        <v>0.1981571717715335</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04610693065896021</v>
+        <v>0.03585013725428666</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4550201383.552772</v>
+        <v>4598931768.037498</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07450269187008486</v>
+        <v>0.06363274123099691</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02949261982719749</v>
+        <v>0.02214691426271209</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3127484329.738599</v>
+        <v>3368992049.319518</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1531926209342196</v>
+        <v>0.17423816544664</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03555416662135534</v>
+        <v>0.04012581255599654</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1246772948.27322</v>
+        <v>1624894503.913796</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08935844725694898</v>
+        <v>0.08336658956283385</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04403663513157142</v>
+        <v>0.03250850603220146</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2744446196.213958</v>
+        <v>2766725644.695346</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1133033352904922</v>
+        <v>0.1060488394710681</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04270559167854379</v>
+        <v>0.04381816326819976</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4353069901.012772</v>
+        <v>3650175980.554479</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1172585477320912</v>
+        <v>0.1516117501643652</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04535748901949687</v>
+        <v>0.04733745961325675</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3122046499.767891</v>
+        <v>3028243720.587515</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1157758346995186</v>
+        <v>0.1222872458368371</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02723687370901983</v>
+        <v>0.02627750034163421</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1178012040.454631</v>
+        <v>1357379505.298052</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1618595370782585</v>
+        <v>0.1419729140454047</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02002174775319499</v>
+        <v>0.01798848040474884</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2513737874.019809</v>
+        <v>2216081466.955804</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1327932594165174</v>
+        <v>0.1056885133014717</v>
       </c>
       <c r="G20" t="n">
-        <v>0.021180678532354</v>
+        <v>0.0248104142400632</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2127106485.385469</v>
+        <v>2279580367.913447</v>
       </c>
       <c r="F21" t="n">
-        <v>0.069068220261744</v>
+        <v>0.08865728532422569</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03527546163121052</v>
+        <v>0.04449499976388462</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3767578064.067029</v>
+        <v>3192726711.738959</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1298560401125722</v>
+        <v>0.1232772243529341</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04523476855082242</v>
+        <v>0.04485889245938458</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1498125660.014579</v>
+        <v>1045257851.777767</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1859844688163287</v>
+        <v>0.142128097347929</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04685009116273129</v>
+        <v>0.03557020186375574</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3176300117.08974</v>
+        <v>3760030212.370178</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1130122267584996</v>
+        <v>0.12370589444184</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02754601891500493</v>
+        <v>0.03696469731887184</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1399519467.734908</v>
+        <v>1199315322.681512</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08173376648546522</v>
+        <v>0.08902523785668179</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02880972820225151</v>
+        <v>0.02258794627336922</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1403529250.401097</v>
+        <v>1072237266.663061</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08696311264026291</v>
+        <v>0.08832727123720423</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0347104692084346</v>
+        <v>0.02874885803418947</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4658593194.168652</v>
+        <v>3229969490.865777</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1557304621116418</v>
+        <v>0.1370939272560155</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01776773062141745</v>
+        <v>0.01959440801107648</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3761184284.770201</v>
+        <v>3241879861.409586</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1274024982047611</v>
+        <v>0.1041703959449998</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03551316706052354</v>
+        <v>0.03592590826372651</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5156107633.964776</v>
+        <v>5838644609.525122</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1511013006593693</v>
+        <v>0.1227810944771611</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03850578089584804</v>
+        <v>0.03756439045185668</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2333017098.071932</v>
+        <v>2397696810.503334</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1064051948168843</v>
+        <v>0.08571220482471559</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02854076563328571</v>
+        <v>0.03554835165258388</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1450455063.951649</v>
+        <v>1312533807.96444</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07847328636913529</v>
+        <v>0.1026430892045588</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04038269294059422</v>
+        <v>0.04926483493963786</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1794460650.998063</v>
+        <v>1511916458.648825</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1167852807239884</v>
+        <v>0.09653773430849559</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02957142296960617</v>
+        <v>0.03522256669812338</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2319663365.671561</v>
+        <v>2457987553.374715</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1790758369244375</v>
+        <v>0.1958191121027323</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04090567501673156</v>
+        <v>0.0401964244557765</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>992412240.8468864</v>
+        <v>1014406763.442647</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07598334986756962</v>
+        <v>0.08672638035467727</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0218207054634767</v>
+        <v>0.01721610789997343</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1154369431.116241</v>
+        <v>1122374783.159769</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08614491771032547</v>
+        <v>0.08204996330714349</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03746841075099826</v>
+        <v>0.03919792300468397</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2385932408.691166</v>
+        <v>2807353727.492448</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1613133883200865</v>
+        <v>0.1363434590480929</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01776311721664767</v>
+        <v>0.02677233061191569</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2584828040.508169</v>
+        <v>2601914169.718656</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1033796882830777</v>
+        <v>0.08447374117523619</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03918046300408315</v>
+        <v>0.03597918305330761</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1332625131.074514</v>
+        <v>1976355667.616017</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1038494111735039</v>
+        <v>0.1113795545971242</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02607164916773969</v>
+        <v>0.0289277087354091</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1530298438.311706</v>
+        <v>2093217851.215737</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1842344094950497</v>
+        <v>0.1429516161624</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02277899589443147</v>
+        <v>0.03100884330037735</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1495764998.057035</v>
+        <v>1183596478.673135</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1221929647673018</v>
+        <v>0.1133097539427229</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05870479700884607</v>
+        <v>0.05590366309034044</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2833675111.096643</v>
+        <v>2687815851.21542</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1069214533745921</v>
+        <v>0.1426307481292432</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04429707192681786</v>
+        <v>0.04498361353496697</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3039233480.406666</v>
+        <v>3166390649.646024</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08807326554115927</v>
+        <v>0.09903468487369602</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04210034013978117</v>
+        <v>0.03491187451014449</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2099889228.938542</v>
+        <v>1852961044.704689</v>
       </c>
       <c r="F43" t="n">
-        <v>0.138263218465376</v>
+        <v>0.197845874241922</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02188062322269942</v>
+        <v>0.02065880128841511</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2197521320.92674</v>
+        <v>2312605794.777465</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08209674573714559</v>
+        <v>0.06342657390522416</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03684146770651319</v>
+        <v>0.0248583374201227</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1629858310.560972</v>
+        <v>2374935406.436804</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1290437671593169</v>
+        <v>0.1259905508209856</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04769585063272261</v>
+        <v>0.0563887551462036</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4121821059.284122</v>
+        <v>3870378105.234114</v>
       </c>
       <c r="F46" t="n">
-        <v>0.162009929383042</v>
+        <v>0.1100357216074003</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05315292048902964</v>
+        <v>0.04532344501515494</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4132801431.18378</v>
+        <v>5157712565.200529</v>
       </c>
       <c r="F47" t="n">
-        <v>0.171004022409986</v>
+        <v>0.1248860384763418</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0461902687349672</v>
+        <v>0.03982694796371583</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3862019511.123188</v>
+        <v>3232500230.321806</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08112446811987076</v>
+        <v>0.1030270339439279</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03636535915060541</v>
+        <v>0.03742680656649866</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1681746105.348092</v>
+        <v>1214509694.004207</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1246725206867801</v>
+        <v>0.1621417522209239</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04323612720142123</v>
+        <v>0.02698904312559282</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3565838022.662622</v>
+        <v>3067876856.623262</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1128858548461105</v>
+        <v>0.1501299208108815</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03308245818929641</v>
+        <v>0.04330566564148857</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1414691823.827342</v>
+        <v>975604744.8155885</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1793683827655979</v>
+        <v>0.1194712509369191</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04787510767240551</v>
+        <v>0.04881906548107928</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4696581200.999754</v>
+        <v>3623798023.630044</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1204034316835563</v>
+        <v>0.09603655135802694</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06051983672250252</v>
+        <v>0.05659805782040442</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3574036034.783379</v>
+        <v>2315488554.682821</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1338800441827886</v>
+        <v>0.1363841943248116</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02373299147807737</v>
+        <v>0.03556576598292581</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4721679428.336475</v>
+        <v>4507963053.624369</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1218917260303861</v>
+        <v>0.1132367162410482</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04084842263978879</v>
+        <v>0.04556022155027736</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3316853136.944148</v>
+        <v>4808416962.158973</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2052243042627368</v>
+        <v>0.2177587609244232</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02575441605352111</v>
+        <v>0.02924979221096727</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1691001437.725343</v>
+        <v>1339089352.280929</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1251087648078541</v>
+        <v>0.1304666886155579</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0410969124903654</v>
+        <v>0.04291068745627279</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3241948529.677014</v>
+        <v>3870706090.436554</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1486985077097796</v>
+        <v>0.1628712395882604</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02268821579128073</v>
+        <v>0.02456382120990033</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1800827667.05167</v>
+        <v>1199322706.729223</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1289203292991561</v>
+        <v>0.1896225040441741</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03606115287691867</v>
+        <v>0.03148501784175575</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4132541110.590008</v>
+        <v>4603896725.471567</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1216426310217529</v>
+        <v>0.1134839178470117</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04447066513809896</v>
+        <v>0.03944987117619338</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2633525875.434084</v>
+        <v>2994594517.850842</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1611446244279582</v>
+        <v>0.1781735068300098</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02803263323889804</v>
+        <v>0.02127500449035875</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3117414306.798739</v>
+        <v>2891774489.043802</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1555959652853627</v>
+        <v>0.1651535036492094</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0240850584076685</v>
+        <v>0.02704582786302049</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2121504932.857937</v>
+        <v>1364425475.515315</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1175743289020747</v>
+        <v>0.1514839858822155</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03284435561193155</v>
+        <v>0.030479923878329</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3611447273.037271</v>
+        <v>4655293242.087733</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09444778835760873</v>
+        <v>0.1008812851740555</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0316510045512157</v>
+        <v>0.04194759749206634</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4770090132.274592</v>
+        <v>4142473943.877952</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1351115324340792</v>
+        <v>0.1655164193929877</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02904306214298727</v>
+        <v>0.03163643504322615</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4538855338.343747</v>
+        <v>5356800578.599182</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1599328911391564</v>
+        <v>0.1164121344127548</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03131474729712105</v>
+        <v>0.02415623709137656</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5147197770.917866</v>
+        <v>5578146048.000683</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1221644211056269</v>
+        <v>0.1053070582816128</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03453041340860841</v>
+        <v>0.03562605732329634</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2478052611.409743</v>
+        <v>3180173690.490967</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09699188406201517</v>
+        <v>0.09970617517352477</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0502542545892934</v>
+        <v>0.04540100000966241</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5963480734.003304</v>
+        <v>3868916048.721291</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1601697369880393</v>
+        <v>0.1438782025744532</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03959486287280547</v>
+        <v>0.03830048392254033</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2171716294.702385</v>
+        <v>1827550829.376608</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1563069417528345</v>
+        <v>0.1504083577416435</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04597733475471203</v>
+        <v>0.0563120547870541</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3025905168.050151</v>
+        <v>2792991028.821977</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1021271689539862</v>
+        <v>0.08692186632262429</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04741245481247061</v>
+        <v>0.04763406263445187</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4490984637.86677</v>
+        <v>5217278774.657804</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1134021269388597</v>
+        <v>0.1613447886982115</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02928799676580084</v>
+        <v>0.03219296099474855</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2190708301.313328</v>
+        <v>1757269637.459872</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09591016083293255</v>
+        <v>0.06882478381857228</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03805713711713163</v>
+        <v>0.03674657470236376</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3440562019.786266</v>
+        <v>3409135788.4634</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0702290692306958</v>
+        <v>0.08078937606559441</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03721983930098932</v>
+        <v>0.04046885026507788</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2599623077.628411</v>
+        <v>3756294478.065998</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1848481405585958</v>
+        <v>0.1457265966667758</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0228223969859675</v>
+        <v>0.03310363729417158</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2321600374.933456</v>
+        <v>2422730115.243423</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1253856066143038</v>
+        <v>0.1066186263766442</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02380075717837097</v>
+        <v>0.03252358828197296</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4417706540.148416</v>
+        <v>3576550081.979685</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1006955597097883</v>
+        <v>0.08632561409488465</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0270776775829158</v>
+        <v>0.02505471574125357</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2218287426.42625</v>
+        <v>1753023058.669468</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1635858083400834</v>
+        <v>0.1608611805250283</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02676985662527334</v>
+        <v>0.0304409486052124</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2908768052.907931</v>
+        <v>4759771940.580029</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09244666560716731</v>
+        <v>0.0934739874259501</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03951140932594717</v>
+        <v>0.05106918573591246</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1311306353.849123</v>
+        <v>1586918088.084693</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1571389766994042</v>
+        <v>0.151371409931875</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02858564516545485</v>
+        <v>0.03113320095673957</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4895426631.672739</v>
+        <v>4181964161.373918</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06926298934266435</v>
+        <v>0.1030994838067436</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0269501297344967</v>
+        <v>0.02654468829755537</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3289871786.86231</v>
+        <v>3244205751.540559</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09597098041806384</v>
+        <v>0.1085625294862135</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02022942463324614</v>
+        <v>0.02775983894089548</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3746741057.894632</v>
+        <v>4737609892.668304</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1343451684747834</v>
+        <v>0.1783841308130399</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02574127206995445</v>
+        <v>0.0278505076399505</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2210357887.400029</v>
+        <v>2169047336.498044</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1231308339203946</v>
+        <v>0.1476776265760551</v>
       </c>
       <c r="G83" t="n">
-        <v>0.027483691637118</v>
+        <v>0.02876014976188144</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1830403700.541144</v>
+        <v>2225005981.863095</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1155739976159023</v>
+        <v>0.07644114538122802</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0393917140377825</v>
+        <v>0.04839873893492908</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2292530452.816037</v>
+        <v>3168275584.889015</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1784266462629139</v>
+        <v>0.1720948938942128</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04818025196191979</v>
+        <v>0.03688670399251692</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1964454939.682967</v>
+        <v>2619703232.277886</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1498382587689782</v>
+        <v>0.1521974850302751</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01861164593951031</v>
+        <v>0.01870307939597282</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1445440021.695858</v>
+        <v>1091209128.826108</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1730112210145265</v>
+        <v>0.1666103041672292</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02977435649713365</v>
+        <v>0.04100608842332473</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3585094281.645444</v>
+        <v>2486593022.280704</v>
       </c>
       <c r="F88" t="n">
-        <v>0.125938476792666</v>
+        <v>0.1360937717530146</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02727041528763895</v>
+        <v>0.03625206414773891</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3319556874.885601</v>
+        <v>3108177512.970667</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1414126870412099</v>
+        <v>0.1215241899246044</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03837428190493487</v>
+        <v>0.02634105147138097</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1515464319.677909</v>
+        <v>2006999754.100527</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1241495763608319</v>
+        <v>0.09937026309665703</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04175486981710244</v>
+        <v>0.05035627944996847</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1926134542.828372</v>
+        <v>1278572367.956848</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1872755322634977</v>
+        <v>0.1316930236706464</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05842517744648803</v>
+        <v>0.05695219104292672</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2109794705.61376</v>
+        <v>2265759866.033333</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1084106362269895</v>
+        <v>0.0737384839294353</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0298247908645883</v>
+        <v>0.0333370031182288</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3259452409.352665</v>
+        <v>4299310950.717252</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0899118089567518</v>
+        <v>0.1110597736390067</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0408252585418996</v>
+        <v>0.05358429953996494</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1709730758.539868</v>
+        <v>1717492205.669548</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1463106612423198</v>
+        <v>0.1511355753140145</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03981302164228472</v>
+        <v>0.02837907958399283</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3017035595.119913</v>
+        <v>2491775800.11076</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1049143783510998</v>
+        <v>0.08616756295922846</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03875911966100192</v>
+        <v>0.04708678481414858</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1780197442.169094</v>
+        <v>1774704645.851819</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09797760060946904</v>
+        <v>0.1173086236305701</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04441851247708296</v>
+        <v>0.03055153221248453</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4834879033.196064</v>
+        <v>3321885569.277202</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1502268420375462</v>
+        <v>0.1652982676078725</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02814726109006532</v>
+        <v>0.02269747007229007</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3850686932.137279</v>
+        <v>2908343076.608838</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08954981824011812</v>
+        <v>0.0939593843867419</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02622098601785275</v>
+        <v>0.02913732122472829</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2182911903.050127</v>
+        <v>3169876985.735796</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1283713697740721</v>
+        <v>0.08973329970392979</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02170383565986334</v>
+        <v>0.03235193165655445</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3745451545.8653</v>
+        <v>4637004149.663329</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1115229029014542</v>
+        <v>0.130743072132031</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01772810072092238</v>
+        <v>0.02674230617226655</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3047558332.651258</v>
+        <v>3116013234.190969</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1623069801626801</v>
+        <v>0.1729644772857097</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04258431739058587</v>
+        <v>0.04283971689047271</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_62.xlsx
+++ b/output/fit_clients/fit_round_62.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2014098827.518636</v>
+        <v>1650445957.197079</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08443941701572703</v>
+        <v>0.1006952201110603</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03845145048886312</v>
+        <v>0.02983847154149845</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1690687107.824245</v>
+        <v>1635657898.838004</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1294319991926631</v>
+        <v>0.1409873868744639</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04595700891158763</v>
+        <v>0.03976437336481974</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4688724339.341502</v>
+        <v>3233071038.99901</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1194272273852231</v>
+        <v>0.1572552524067171</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0267802364402984</v>
+        <v>0.02574404532675881</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>61</v>
+      </c>
+      <c r="K4" t="n">
+        <v>106.3058355924832</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3278783542.040492</v>
+        <v>3414405779.783479</v>
       </c>
       <c r="F5" t="n">
-        <v>0.108309283273981</v>
+        <v>0.09043858552819813</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04111138426305342</v>
+        <v>0.04314204993722572</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28</v>
+      </c>
+      <c r="J5" t="n">
+        <v>62</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2116379501.677195</v>
+        <v>2300111355.175283</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1437911887065274</v>
+        <v>0.1375960544016162</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04269624581803137</v>
+        <v>0.04475582042245317</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2361850953.779308</v>
+        <v>2262471089.319921</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07218682048686367</v>
+        <v>0.09598482465030013</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04520118907806895</v>
+        <v>0.04769632964385569</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3636253306.647489</v>
+        <v>2733906467.092372</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1645839242801276</v>
+        <v>0.1649302085043136</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03096695860430127</v>
+        <v>0.02840667095529265</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>59</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1796729514.595835</v>
+        <v>1436402221.383414</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1939490593491587</v>
+        <v>0.1335925346305602</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03040222596513542</v>
+        <v>0.0271557549117488</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +783,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4914388937.958553</v>
+        <v>4693006484.807558</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1380837067635552</v>
+        <v>0.1370899370562156</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05194226804947333</v>
+        <v>0.03988985501730515</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>57</v>
+      </c>
+      <c r="J10" t="n">
+        <v>62</v>
+      </c>
+      <c r="K10" t="n">
+        <v>214.6926352554244</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +820,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2938350751.241389</v>
+        <v>2790317136.417645</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1753081259780885</v>
+        <v>0.1584895382788074</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04855143457260707</v>
+        <v>0.03223319660488368</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>28</v>
+      </c>
+      <c r="J11" t="n">
+        <v>61</v>
+      </c>
+      <c r="K11" t="n">
+        <v>86.4522998502064</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2110911626.577755</v>
+        <v>2026631721.900089</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1981571717715335</v>
+        <v>0.1765570383965328</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03585013725428666</v>
+        <v>0.04628821076903956</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4598931768.037498</v>
+        <v>4990319963.902605</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06363274123099691</v>
+        <v>0.09013971670504618</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02214691426271209</v>
+        <v>0.02031856971345124</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>31</v>
+      </c>
+      <c r="J13" t="n">
+        <v>62</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3368992049.319518</v>
+        <v>2818648811.475404</v>
       </c>
       <c r="F14" t="n">
-        <v>0.17423816544664</v>
+        <v>0.1325364448949681</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04012581255599654</v>
+        <v>0.03694177451871402</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>56</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1624894503.913796</v>
+        <v>1142359015.715319</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08336658956283385</v>
+        <v>0.06760258301215855</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03250850603220146</v>
+        <v>0.04861112607709502</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2766725644.695346</v>
+        <v>2346712857.270383</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1060488394710681</v>
+        <v>0.09659141130539067</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04381816326819976</v>
+        <v>0.03316275470163576</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3650175980.554479</v>
+        <v>4609592640.222575</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1516117501643652</v>
+        <v>0.1240930265773539</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04733745961325675</v>
+        <v>0.03671037432359515</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>30</v>
+      </c>
+      <c r="J17" t="n">
+        <v>61</v>
+      </c>
+      <c r="K17" t="n">
+        <v>174.73230717313</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3028243720.587515</v>
+        <v>3722703136.622786</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1222872458368371</v>
+        <v>0.1748722301617125</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02627750034163421</v>
+        <v>0.02806196429766673</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>61</v>
+      </c>
+      <c r="K18" t="n">
+        <v>136.9159919894084</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1357379505.298052</v>
+        <v>1142656437.560815</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1419729140454047</v>
+        <v>0.1298705122151399</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01798848040474884</v>
+        <v>0.0203728396711973</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2216081466.955804</v>
+        <v>2492472713.280029</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1056885133014717</v>
+        <v>0.1520934023133773</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0248104142400632</v>
+        <v>0.02605842662396073</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2279580367.913447</v>
+        <v>2128661197.720556</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08865728532422569</v>
+        <v>0.08917716870082647</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04449499976388462</v>
+        <v>0.04336580154346435</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3192726711.738959</v>
+        <v>3763510671.877755</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1232772243529341</v>
+        <v>0.1072865177159638</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04485889245938458</v>
+        <v>0.0444382263865071</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>62</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1045257851.777767</v>
+        <v>955670616.0197922</v>
       </c>
       <c r="F23" t="n">
-        <v>0.142128097347929</v>
+        <v>0.1267368941340302</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03557020186375574</v>
+        <v>0.05260645034354942</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1275,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3760030212.370178</v>
+        <v>3224889787.881064</v>
       </c>
       <c r="F24" t="n">
-        <v>0.12370589444184</v>
+        <v>0.1109751360164046</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03696469731887184</v>
+        <v>0.02864086515051715</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19</v>
+      </c>
+      <c r="J24" t="n">
+        <v>61</v>
+      </c>
+      <c r="K24" t="n">
+        <v>97.30139022008645</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1199315322.681512</v>
+        <v>1112923819.227422</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08902523785668179</v>
+        <v>0.08112550678118573</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02258794627336922</v>
+        <v>0.02170211933285291</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1347,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1072237266.663061</v>
+        <v>1387957198.612691</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08832727123720423</v>
+        <v>0.08820941343664906</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02874885803418947</v>
+        <v>0.03365708430628171</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1382,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3229969490.865777</v>
+        <v>4581479206.966808</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1370939272560155</v>
+        <v>0.1442054869698315</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01959440801107648</v>
+        <v>0.01968638367977852</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>24</v>
+      </c>
+      <c r="J27" t="n">
+        <v>62</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3241879861.409586</v>
+        <v>2562427103.333597</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1041703959449998</v>
+        <v>0.1338690213966351</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03592590826372651</v>
+        <v>0.03653557579825667</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>16</v>
+      </c>
+      <c r="J28" t="n">
+        <v>60</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5838644609.525122</v>
+        <v>3712000465.24615</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1227810944771611</v>
+        <v>0.1345473898301047</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03756439045185668</v>
+        <v>0.03842549859857344</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>57</v>
+      </c>
+      <c r="J29" t="n">
+        <v>61</v>
+      </c>
+      <c r="K29" t="n">
+        <v>160.9254303950704</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2397696810.503334</v>
+        <v>2278431684.976549</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08571220482471559</v>
+        <v>0.1065448467909314</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03554835165258388</v>
+        <v>0.02660142050589781</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1312533807.96444</v>
+        <v>1214309515.861184</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1026430892045588</v>
+        <v>0.1011183108819227</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04926483493963786</v>
+        <v>0.03855605259123417</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1511916458.648825</v>
+        <v>1228867134.392261</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09653773430849559</v>
+        <v>0.07946487073715934</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03522256669812338</v>
+        <v>0.03739290125824615</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2457987553.374715</v>
+        <v>3046608783.504144</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1958191121027323</v>
+        <v>0.1353617581918403</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0401964244557765</v>
+        <v>0.05695214631928338</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1014406763.442647</v>
+        <v>1345176580.354184</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08672638035467727</v>
+        <v>0.09021667356861506</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01721610789997343</v>
+        <v>0.02139724794872697</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1122374783.159769</v>
+        <v>979272739.5213609</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08204996330714349</v>
+        <v>0.111700026584091</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03919792300468397</v>
+        <v>0.03387771012641246</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1705,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2807353727.492448</v>
+        <v>3094260802.331342</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1363434590480929</v>
+        <v>0.1722225023621341</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02677233061191569</v>
+        <v>0.02896469883691532</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2601914169.718656</v>
+        <v>1843411015.15473</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08447374117523619</v>
+        <v>0.08381630686419717</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03597918305330761</v>
+        <v>0.03097335337336246</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1976355667.616017</v>
+        <v>1975624035.693612</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1113795545971242</v>
+        <v>0.07497290595411579</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0289277087354091</v>
+        <v>0.03446713410521694</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2093217851.215737</v>
+        <v>1911026949.051601</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1429516161624</v>
+        <v>0.1501382402023731</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03100884330037735</v>
+        <v>0.02155481487566353</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1183596478.673135</v>
+        <v>1264179892.568044</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1133097539427229</v>
+        <v>0.1176918014041756</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05590366309034044</v>
+        <v>0.03854486198390777</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2687815851.21542</v>
+        <v>2616313779.443994</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1426307481292432</v>
+        <v>0.1475665553177918</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04498361353496697</v>
+        <v>0.03187287912434852</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3166390649.646024</v>
+        <v>2990485289.113821</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09903468487369602</v>
+        <v>0.1002299599175809</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03491187451014449</v>
+        <v>0.04243315432882672</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>23</v>
+      </c>
+      <c r="J42" t="n">
+        <v>60</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1852961044.704689</v>
+        <v>2671444747.164377</v>
       </c>
       <c r="F43" t="n">
-        <v>0.197845874241922</v>
+        <v>0.1703401337078842</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02065880128841511</v>
+        <v>0.01780654704414934</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2312605794.777465</v>
+        <v>2068736144.3485</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06342657390522416</v>
+        <v>0.06638402258509855</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0248583374201227</v>
+        <v>0.03383020677699699</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2374935406.436804</v>
+        <v>1790948285.112022</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1259905508209856</v>
+        <v>0.1375062508061657</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0563887551462036</v>
+        <v>0.03744141501891311</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3870378105.234114</v>
+        <v>5045220522.488131</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1100357216074003</v>
+        <v>0.1617906639538958</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04532344501515494</v>
+        <v>0.05484483896116953</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>37</v>
+      </c>
+      <c r="J46" t="n">
+        <v>62</v>
+      </c>
+      <c r="K46" t="n">
+        <v>190.0646360621689</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5157712565.200529</v>
+        <v>5010221781.687224</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1248860384763418</v>
+        <v>0.2000938665064223</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03982694796371583</v>
+        <v>0.05575942098534303</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>27</v>
+      </c>
+      <c r="J47" t="n">
+        <v>61</v>
+      </c>
+      <c r="K47" t="n">
+        <v>164.4189574606862</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3232500230.321806</v>
+        <v>3579966666.79217</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1030270339439279</v>
+        <v>0.07822862136526346</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03742680656649866</v>
+        <v>0.02686375452482603</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>21</v>
+      </c>
+      <c r="J48" t="n">
+        <v>62</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2164,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1214509694.004207</v>
+        <v>1483782821.151005</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1621417522209239</v>
+        <v>0.1654443100541432</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02698904312559282</v>
+        <v>0.033928964847439</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3067876856.623262</v>
+        <v>3360895758.396917</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1501299208108815</v>
+        <v>0.1425420640921708</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04330566564148857</v>
+        <v>0.03718617359217607</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>22</v>
+      </c>
+      <c r="J50" t="n">
+        <v>62</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>975604744.8155885</v>
+        <v>1336287085.483072</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1194712509369191</v>
+        <v>0.1478147019978739</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04881906548107928</v>
+        <v>0.04806527023133722</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2263,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3623798023.630044</v>
+        <v>5184421936.160133</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09603655135802694</v>
+        <v>0.0866256593559112</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05659805782040442</v>
+        <v>0.03749098206311171</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>50</v>
+      </c>
+      <c r="J52" t="n">
+        <v>62</v>
+      </c>
+      <c r="K52" t="n">
+        <v>203.055406431999</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2315488554.682821</v>
+        <v>2293162537.329017</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1363841943248116</v>
+        <v>0.1631315938506477</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03556576598292581</v>
+        <v>0.02790384722422545</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>59</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4507963053.624369</v>
+        <v>4365969340.464413</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1132367162410482</v>
+        <v>0.133487880199722</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04556022155027736</v>
+        <v>0.04805494131350063</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>27</v>
+      </c>
+      <c r="J54" t="n">
+        <v>61</v>
+      </c>
+      <c r="K54" t="n">
+        <v>189.0831678212169</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4808416962.158973</v>
+        <v>4254741731.44785</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2177587609244232</v>
+        <v>0.1634589110406708</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02924979221096727</v>
+        <v>0.0268973203065565</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>28</v>
+      </c>
+      <c r="J55" t="n">
+        <v>62</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1339089352.280929</v>
+        <v>1305190673.882885</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1304666886155579</v>
+        <v>0.1182172630472727</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04291068745627279</v>
+        <v>0.03511454903948302</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3870706090.436554</v>
+        <v>3505443539.79208</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1628712395882604</v>
+        <v>0.1215500132949704</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02456382120990033</v>
+        <v>0.02129178247477671</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>23</v>
+      </c>
+      <c r="J57" t="n">
+        <v>62</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1199322706.729223</v>
+        <v>1498573840.114421</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1896225040441741</v>
+        <v>0.198169286711637</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03148501784175575</v>
+        <v>0.03614174544994832</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4603896725.471567</v>
+        <v>4112226804.392651</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1134839178470117</v>
+        <v>0.1251481686523335</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03944987117619338</v>
+        <v>0.03642410074364306</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>30</v>
+      </c>
+      <c r="J59" t="n">
+        <v>61</v>
+      </c>
+      <c r="K59" t="n">
+        <v>150.1380564540248</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2994594517.850842</v>
+        <v>2812435653.726151</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1781735068300098</v>
+        <v>0.1844049303366594</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02127500449035875</v>
+        <v>0.03256138554427995</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>52</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2891774489.043802</v>
+        <v>3259472215.275423</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1651535036492094</v>
+        <v>0.1784043437209288</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02704582786302049</v>
+        <v>0.02544475706628623</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1364425475.515315</v>
+        <v>1364464909.55536</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1514839858822155</v>
+        <v>0.1542887199931567</v>
       </c>
       <c r="G62" t="n">
-        <v>0.030479923878329</v>
+        <v>0.04164130637702647</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4655293242.087733</v>
+        <v>4648558889.316967</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1008812851740555</v>
+        <v>0.07157767383800481</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04194759749206634</v>
+        <v>0.03208943219741666</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>30</v>
+      </c>
+      <c r="J63" t="n">
+        <v>62</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4142473943.877952</v>
+        <v>5121330057.331997</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1655164193929877</v>
+        <v>0.1808008156065995</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03163643504322615</v>
+        <v>0.02263033125694774</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>30</v>
+      </c>
+      <c r="J64" t="n">
+        <v>62</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5356800578.599182</v>
+        <v>5392664171.278436</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1164121344127548</v>
+        <v>0.1330597992078559</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02415623709137656</v>
+        <v>0.02035298011822418</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>49</v>
+      </c>
+      <c r="J65" t="n">
+        <v>62</v>
+      </c>
+      <c r="K65" t="n">
+        <v>194.7205397189466</v>
       </c>
     </row>
     <row r="66">
@@ -2278,17 +2767,24 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5578146048.000683</v>
+        <v>4972227753.877366</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1053070582816128</v>
+        <v>0.1070282005658943</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03562605732329634</v>
+        <v>0.04450909824799585</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>30</v>
+      </c>
+      <c r="J66" t="n">
+        <v>62</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3180173690.490967</v>
+        <v>2617048565.432959</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09970617517352477</v>
+        <v>0.07609128290148331</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04540100000966241</v>
+        <v>0.03397475130282336</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3868916048.721291</v>
+        <v>5877836881.584837</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1438782025744532</v>
+        <v>0.10294615616597</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03830048392254033</v>
+        <v>0.04896612357342497</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>31</v>
+      </c>
+      <c r="J68" t="n">
+        <v>61</v>
+      </c>
+      <c r="K68" t="n">
+        <v>182.8424386657016</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1827550829.376608</v>
+        <v>1912260795.758563</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1504083577416435</v>
+        <v>0.1208290975059383</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0563120547870541</v>
+        <v>0.05241234062068013</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2792991028.821977</v>
+        <v>2707936006.216591</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08692186632262429</v>
+        <v>0.09380175188519926</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04763406263445187</v>
+        <v>0.04359379423153636</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>7</v>
+      </c>
+      <c r="J70" t="n">
+        <v>58</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5217278774.657804</v>
+        <v>4232328192.766551</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1613447886982115</v>
+        <v>0.1836793804968007</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03219296099474855</v>
+        <v>0.02355692128646853</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>51</v>
+      </c>
+      <c r="J71" t="n">
+        <v>61</v>
+      </c>
+      <c r="K71" t="n">
+        <v>183.3174246123617</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1757269637.459872</v>
+        <v>1732897852.036261</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06882478381857228</v>
+        <v>0.1062897646448249</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03674657470236376</v>
+        <v>0.04599486583557379</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3409135788.4634</v>
+        <v>3107919183.117018</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08078937606559441</v>
+        <v>0.06805186109041245</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04046885026507788</v>
+        <v>0.03813787685929456</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>4</v>
+      </c>
+      <c r="J73" t="n">
+        <v>54</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3756294478.065998</v>
+        <v>2459298008.430223</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1457265966667758</v>
+        <v>0.1416466017557207</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03310363729417158</v>
+        <v>0.02888958008676705</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>18</v>
+      </c>
+      <c r="J74" t="n">
+        <v>54</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2422730115.243423</v>
+        <v>1929534699.901774</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1066186263766442</v>
+        <v>0.1536280269176183</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03252358828197296</v>
+        <v>0.03162571346204011</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3576550081.979685</v>
+        <v>5284150005.574841</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08632561409488465</v>
+        <v>0.0937321636072682</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02505471574125357</v>
+        <v>0.0259847144388846</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>29</v>
+      </c>
+      <c r="J76" t="n">
+        <v>61</v>
+      </c>
+      <c r="K76" t="n">
+        <v>157.6937596675214</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1753023058.669468</v>
+        <v>1823778137.386628</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1608611805250283</v>
+        <v>0.139693641478801</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0304409486052124</v>
+        <v>0.02684147974366162</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4759771940.580029</v>
+        <v>3200379024.397562</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0934739874259501</v>
+        <v>0.1168955487538625</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05106918573591246</v>
+        <v>0.0479404045049275</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>26</v>
+      </c>
+      <c r="J78" t="n">
+        <v>60</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1586918088.084693</v>
+        <v>1829608822.851067</v>
       </c>
       <c r="F79" t="n">
-        <v>0.151371409931875</v>
+        <v>0.1338814851853223</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03113320095673957</v>
+        <v>0.03123349627893694</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,16 +3263,25 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4181964161.373918</v>
+        <v>3846333059.195669</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1030994838067436</v>
+        <v>0.1051957153704414</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02654468829755537</v>
+        <v>0.02929556328846504</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>30</v>
+      </c>
+      <c r="J80" t="n">
+        <v>61</v>
+      </c>
+      <c r="K80" t="n">
+        <v>118.0677510672864</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3244205751.540559</v>
+        <v>4929562886.557941</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1085625294862135</v>
+        <v>0.1079682875029487</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02775983894089548</v>
+        <v>0.02870437263895891</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>28</v>
+      </c>
+      <c r="J81" t="n">
+        <v>61</v>
+      </c>
+      <c r="K81" t="n">
+        <v>154.6780435580922</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3337,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4737609892.668304</v>
+        <v>4473778481.419408</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1783841308130399</v>
+        <v>0.2069905026664886</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0278505076399505</v>
+        <v>0.02064368793571453</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>36</v>
+      </c>
+      <c r="J82" t="n">
+        <v>62</v>
+      </c>
+      <c r="K82" t="n">
+        <v>199.8693858456096</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2169047336.498044</v>
+        <v>2084328173.780134</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1476776265760551</v>
+        <v>0.1010291859164801</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02876014976188144</v>
+        <v>0.04359189841041925</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2225005981.863095</v>
+        <v>2097783830.974321</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07644114538122802</v>
+        <v>0.08892184264406391</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04839873893492908</v>
+        <v>0.04154589665760632</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3168275584.889015</v>
+        <v>3127146247.741158</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1720948938942128</v>
+        <v>0.1241890367929172</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03688670399251692</v>
+        <v>0.04735154386217732</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>60</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2619703232.277886</v>
+        <v>2695704054.715546</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1521974850302751</v>
+        <v>0.1503305641687052</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01870307939597282</v>
+        <v>0.01946093549887595</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1091209128.826108</v>
+        <v>1020648176.588175</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1666103041672292</v>
+        <v>0.1842962970753756</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04100608842332473</v>
+        <v>0.02763589996370193</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2486593022.280704</v>
+        <v>2543817317.991395</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1360937717530146</v>
+        <v>0.1234584429614623</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03625206414773891</v>
+        <v>0.03781685444315627</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>55</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3108177512.970667</v>
+        <v>3434178443.829453</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1215241899246044</v>
+        <v>0.1448837357720204</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02634105147138097</v>
+        <v>0.03630363439907192</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>6</v>
+      </c>
+      <c r="J89" t="n">
+        <v>62</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2006999754.100527</v>
+        <v>1415574812.914123</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09937026309665703</v>
+        <v>0.1164947684227808</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05035627944996847</v>
+        <v>0.04867760356955337</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1278572367.956848</v>
+        <v>1913302536.738823</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1316930236706464</v>
+        <v>0.1273933736428921</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05695219104292672</v>
+        <v>0.05399636375667704</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2265759866.033333</v>
+        <v>2289402096.973268</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0737384839294353</v>
+        <v>0.1076202897250215</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0333370031182288</v>
+        <v>0.03776433586660992</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4299310950.717252</v>
+        <v>4610296375.809179</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1110597736390067</v>
+        <v>0.09185109375597519</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05358429953996494</v>
+        <v>0.05008278296869827</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>27</v>
+      </c>
+      <c r="J93" t="n">
+        <v>62</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1717492205.669548</v>
+        <v>1989517367.95531</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1511355753140145</v>
+        <v>0.1556720510025995</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02837907958399283</v>
+        <v>0.04223526566781379</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2491775800.11076</v>
+        <v>2875270604.326155</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08616756295922846</v>
+        <v>0.08556160943287272</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04708678481414858</v>
+        <v>0.03340287633323173</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1774704645.851819</v>
+        <v>1776523153.291346</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1173086236305701</v>
+        <v>0.08695529207771231</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03055153221248453</v>
+        <v>0.04129516483982672</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3321885569.277202</v>
+        <v>3273056561.793429</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1652982676078725</v>
+        <v>0.1475867414512594</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02269747007229007</v>
+        <v>0.01985559827779095</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>30</v>
+      </c>
+      <c r="J97" t="n">
+        <v>61</v>
+      </c>
+      <c r="K97" t="n">
+        <v>106.4233811345523</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2908343076.608838</v>
+        <v>3332665363.81214</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0939593843867419</v>
+        <v>0.1160857915506051</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02913732122472829</v>
+        <v>0.02798605311369488</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>14</v>
+      </c>
+      <c r="J98" t="n">
+        <v>62</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3169876985.735796</v>
+        <v>3363514639.110704</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08973329970392979</v>
+        <v>0.1417750965642209</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03235193165655445</v>
+        <v>0.03363970949832265</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4637004149.663329</v>
+        <v>3053823820.395419</v>
       </c>
       <c r="F100" t="n">
-        <v>0.130743072132031</v>
+        <v>0.1657995595314876</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02674230617226655</v>
+        <v>0.01844869147916712</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>26</v>
+      </c>
+      <c r="J100" t="n">
+        <v>59</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3116013234.190969</v>
+        <v>3304960973.490403</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1729644772857097</v>
+        <v>0.1504755176680207</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04283971689047271</v>
+        <v>0.05133034831902838</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
